--- a/biology/Histoire de la zoologie et de la botanique/Office_pour_les_insectes_et_leur_environnement/Office_pour_les_insectes_et_leur_environnement.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Office_pour_les_insectes_et_leur_environnement/Office_pour_les_insectes_et_leur_environnement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Office pour les insectes et leur environnement (Opie) est une ONG française fondée par Pierre Grison (1912-2000) de l'INRA en 1969[2] (alors nommée Office pour l'information entomologique) par des spécialistes intéressés par le monde des insectes au sein de l'Institut national de la recherche agronomique (INRA) et d'amateurs.
-Cette association travaille sur la connaissance et protection des insectes, agréée par le Ministère de l'Environnement[3],[4] et celui de l'Éducation nationale, elle est partenaire de l'Inventaire national du patrimoine naturel (INPN). Basée à Guyancourt, elle regroupe plus de 2000 adhérents[5].
-L'OPIE publie la revue d'écologie et d'entomologie Insectes[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Office pour les insectes et leur environnement (Opie) est une ONG française fondée par Pierre Grison (1912-2000) de l'INRA en 1969 (alors nommée Office pour l'information entomologique) par des spécialistes intéressés par le monde des insectes au sein de l'Institut national de la recherche agronomique (INRA) et d'amateurs.
+Cette association travaille sur la connaissance et protection des insectes, agréée par le Ministère de l'Environnement, et celui de l'Éducation nationale, elle est partenaire de l'Inventaire national du patrimoine naturel (INPN). Basée à Guyancourt, elle regroupe plus de 2000 adhérents.
+L'OPIE publie la revue d'écologie et d'entomologie Insectes.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Initialement créé sous le nom d’Office pour l’information entomologique, L’Opie connait en 1976 un premier changement d’intitulé avec l’apparition du terme « éco », devenant l’Office pour l’information éco-entomologique.
 Suivront des années de développement des politiques de protection de la nature auxquelles Robert Guilbot – Secrétaire général de 1984 à 2005 – prendra part.
-L’association deviendra officiellement l’Office pour les insectes et leur environnement en 2002, choisissant de s’ouvrir davantage au grand public[7].
+L’association deviendra officiellement l’Office pour les insectes et leur environnement en 2002, choisissant de s’ouvrir davantage au grand public.
 </t>
         </is>
       </c>
@@ -546,12 +560,14 @@
           <t>Réseau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plus de la base historique, se trouve la Maison des insectes en Île-de-France, à Carrières-sous-Poissy, que l'association anime[8]. Une antenne à Montpellier en Occitanie est également existante.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de la base historique, se trouve la Maison des insectes en Île-de-France, à Carrières-sous-Poissy, que l'association anime. Une antenne à Montpellier en Occitanie est également existante.
 Il existe 3 associations régionales (possédant leur propre conseil d'administration) : Opie Franche-Comté, Opie Midi-Pyrénées et Opie Provence-Alpes Sud.
 Des groupes de travail, offrant un cadre d'échange et d'études ont aussi vu le jour : Opie Poitou-Charentes, Opie-benthos, Opie-odonates, Opie Île-de-France et Opie symphytes.
-Le groupe de travail Opie-benthos édite une revue d'articles scientifiques dédiées aux différents ordres d'insectes aquatiques : Ephemera. Le groupe de travail Opie-odonates édite quant à lui la revue Martinia, dédiée aux zygoptères et anisoptères[9].
+Le groupe de travail Opie-benthos édite une revue d'articles scientifiques dédiées aux différents ordres d'insectes aquatiques : Ephemera. Le groupe de travail Opie-odonates édite quant à lui la revue Martinia, dédiée aux zygoptères et anisoptères.
 </t>
         </is>
       </c>
@@ -580,15 +596,17 @@
           <t>Intervention et communication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Opie propose différents services au public, entreprises et collectivités, notamment des animations en groupe ou auprès du grand public, des formations professionnelles en entomologie (l'association étant certifiée Qualiopi par le gouvernement[10]), des expertises d’identification d’insectes, des études et inventaires ou encore des Plans Nationaux d’Actions.
-En plus des revues d’entomologies : Insectes, Ephemera et Martinia, d’autres publications ont également été éditées par l’association et celle-ci a également collaboré à la rédaction d’autres ouvrages et PNA[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Opie propose différents services au public, entreprises et collectivités, notamment des animations en groupe ou auprès du grand public, des formations professionnelles en entomologie (l'association étant certifiée Qualiopi par le gouvernement), des expertises d’identification d’insectes, des études et inventaires ou encore des Plans Nationaux d’Actions.
+En plus des revues d’entomologies : Insectes, Ephemera et Martinia, d’autres publications ont également été éditées par l’association et celle-ci a également collaboré à la rédaction d’autres ouvrages et PNA.
 En collaboration avec le Muséum national d’histoire Naturelle, l’Opie copilote 4 programmes de sciences participatives :
-- Le Spipoll[12] : Suivi photographique des insectes pollinisateurs. 
-- Qubs[13] : Suivi de la QUalité Biologique des Sols.
-- Le STERF[14] : Suivi TEmporel des Rhopalocères de France.
-- Le STELI[15] : Suivi TEmporel des Libellules.
+- Le Spipoll : Suivi photographique des insectes pollinisateurs. 
+- Qubs : Suivi de la QUalité Biologique des Sols.
+- Le STERF : Suivi TEmporel des Rhopalocères de France.
+- Le STELI : Suivi TEmporel des Libellules.
 </t>
         </is>
       </c>
